--- a/packages/migrations/files/products.xlsx
+++ b/packages/migrations/files/products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brynguyen/Personal/pl-migration/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brynguyen/Personal/phulong-ui/packages/migrations/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BE0EBF-09BA-E84C-BDC7-6D5110E6F8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA60B82-26D1-044F-BAC3-688DD80B696C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{A3AA885D-4E1A-F249-A794-7977249BBB0A}"/>
+    <workbookView xWindow="3580" yWindow="2760" windowWidth="27640" windowHeight="16940" xr2:uid="{A3AA885D-4E1A-F249-A794-7977249BBB0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,17 +36,242 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="171">
+  <si>
+    <t>Vuông 14 0.8 ly</t>
+  </si>
+  <si>
+    <t>1.80</t>
+  </si>
+  <si>
+    <t>Vuông 14 1.0 ly</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>Vuông 14 1.2 ly</t>
+  </si>
+  <si>
+    <t>2.49</t>
+  </si>
+  <si>
+    <t>Vuông 16 0.8 ly</t>
+  </si>
+  <si>
+    <t>Vuông 16 1.0 ly</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>Vuông 16 1.2 ly</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>Vuông 20 0.8 ly</t>
+  </si>
+  <si>
+    <t>Vuông 20 1.0 ly</t>
+  </si>
+  <si>
+    <t>2.92</t>
+  </si>
+  <si>
+    <t>Vuông 20 1.2 ly</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>Vuông 20 1.4 ly</t>
+  </si>
+  <si>
+    <t>4.44</t>
+  </si>
+  <si>
+    <t>Vuông 25 0.8 ly</t>
+  </si>
+  <si>
+    <t>Vuông 25 1.0 ly</t>
+  </si>
+  <si>
+    <t>2.69</t>
+  </si>
+  <si>
+    <t>Vuông 25 1.2 ly</t>
+  </si>
+  <si>
+    <t>4.59</t>
+  </si>
+  <si>
+    <t>Vuông 25 1.4 ly</t>
+  </si>
+  <si>
+    <t>5.62</t>
+  </si>
+  <si>
+    <t>Vuông 25 1.8 ly</t>
+  </si>
+  <si>
+    <t>Vuông 30 0.8 ly</t>
+  </si>
+  <si>
+    <t>Vuông 30 1.0 ly</t>
+  </si>
   <si>
     <t>4.47</t>
   </si>
   <si>
+    <t>Vuông 30 1.2 ly</t>
+  </si>
+  <si>
     <t>5.56</t>
   </si>
   <si>
+    <t>Vuông 30 1.4 ly</t>
+  </si>
+  <si>
+    <t>6.60</t>
+  </si>
+  <si>
+    <t>Vuông 30 1.8 ly</t>
+  </si>
+  <si>
+    <t>8.44</t>
+  </si>
+  <si>
+    <t>Vuông 40 1.0 ly</t>
+  </si>
+  <si>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>Vuông 40 1.2 ly</t>
+  </si>
+  <si>
+    <t>7.57</t>
+  </si>
+  <si>
+    <t>Vuông 40 1.4 ly</t>
+  </si>
+  <si>
+    <t>9.27</t>
+  </si>
+  <si>
+    <t>Vuông 40 1.8 ly</t>
+  </si>
+  <si>
+    <t>11.39</t>
+  </si>
+  <si>
+    <t>Vuông 50 1.0 ly</t>
+  </si>
+  <si>
+    <t>8.52</t>
+  </si>
+  <si>
+    <t>Vuông 50 1.2 ly</t>
+  </si>
+  <si>
+    <t>9.45</t>
+  </si>
+  <si>
+    <t>Vuông 50 1.4 ly</t>
+  </si>
+  <si>
+    <t>11.57</t>
+  </si>
+  <si>
+    <t>Vuông 50 1.8 ly</t>
+  </si>
+  <si>
+    <t>14.33</t>
+  </si>
+  <si>
+    <t>Vuông 60 1.2 ly</t>
+  </si>
+  <si>
+    <t>Vuông 60 1.4 ly</t>
+  </si>
+  <si>
+    <t>13.94</t>
+  </si>
+  <si>
+    <t>Vuông 60 1.8 ly</t>
+  </si>
+  <si>
+    <t>17.28</t>
+  </si>
+  <si>
+    <t>Vuông 75 1.2 ly</t>
+  </si>
+  <si>
     <t>14.30</t>
   </si>
   <si>
+    <t>Vuông 75 1.4 ly</t>
+  </si>
+  <si>
+    <t>17.50</t>
+  </si>
+  <si>
+    <t>Vuông 75 1.8 ly</t>
+  </si>
+  <si>
+    <t>21.69</t>
+  </si>
+  <si>
+    <t>Vuông 90 1.4 ly</t>
+  </si>
+  <si>
+    <t>21.10</t>
+  </si>
+  <si>
+    <t>Vuông 90 1.8 ly</t>
+  </si>
+  <si>
+    <t>26.13</t>
+  </si>
+  <si>
+    <t>Vuông 100 1.4 ly</t>
+  </si>
+  <si>
+    <t>23.47</t>
+  </si>
+  <si>
+    <t>Vuông 100 1.8 ly</t>
+  </si>
+  <si>
+    <t>29.67</t>
+  </si>
+  <si>
+    <t>Vuông 100 2.0 ly</t>
+  </si>
+  <si>
+    <t>26.78</t>
+  </si>
+  <si>
+    <t>Vuông 100 2.5 ly</t>
+  </si>
+  <si>
+    <t>45.69</t>
+  </si>
+  <si>
+    <t>Vuông 100 2.8 ly</t>
+  </si>
+  <si>
+    <t>50.98</t>
+  </si>
+  <si>
+    <t>Vuông 100 3.0 ly</t>
+  </si>
+  <si>
+    <t>54.49</t>
+  </si>
+  <si>
     <t>10 x 20 1.0 ly</t>
   </si>
   <si>
@@ -218,12 +443,48 @@
     <t>type</t>
   </si>
   <si>
+    <t>sq14</t>
+  </si>
+  <si>
+    <t>sq16</t>
+  </si>
+  <si>
     <t>refWeight</t>
   </si>
   <si>
     <t>refUnitPrice</t>
   </si>
   <si>
+    <t>sqSteel</t>
+  </si>
+  <si>
+    <t>sq20</t>
+  </si>
+  <si>
+    <t>sq25</t>
+  </si>
+  <si>
+    <t>sq30</t>
+  </si>
+  <si>
+    <t>sq40</t>
+  </si>
+  <si>
+    <t>sq50</t>
+  </si>
+  <si>
+    <t>sq60</t>
+  </si>
+  <si>
+    <t>sq75</t>
+  </si>
+  <si>
+    <t>sq90</t>
+  </si>
+  <si>
+    <t>sq100</t>
+  </si>
+  <si>
     <t>recSteel</t>
   </si>
   <si>
@@ -252,6 +513,42 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>thickness</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>0.9</t>
   </si>
 </sst>
 </file>
@@ -615,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF128FAA-D67D-2A48-9249-0A704F8D354F}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,785 +923,1592 @@
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" t="s">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F17" s="1"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="6:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="6:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="6:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G40" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="1">
-        <v>20</v>
-      </c>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="E44" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" s="1">
-        <v>20</v>
-      </c>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="E45" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F46" s="1">
-        <v>20</v>
-      </c>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="D46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G46" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="1">
-        <v>20</v>
-      </c>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="E47" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48" s="1">
-        <v>20</v>
-      </c>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="D48" t="s">
+        <v>169</v>
+      </c>
+      <c r="G48" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="1">
-        <v>20</v>
-      </c>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="E49" t="s">
+        <v>87</v>
+      </c>
+      <c r="G49" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
-      </c>
-      <c r="F50" s="1">
-        <v>20</v>
-      </c>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="D50" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="D51" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1">
-        <v>20</v>
-      </c>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="E51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="D52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1">
-        <v>20</v>
-      </c>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="E52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="1">
-        <v>20</v>
-      </c>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="E53" t="s">
+        <v>92</v>
+      </c>
+      <c r="G53" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
-      </c>
-      <c r="F54" s="1">
-        <v>20</v>
-      </c>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="D54" t="s">
+        <v>164</v>
+      </c>
+      <c r="G54" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55" s="1">
-        <v>20</v>
-      </c>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="D55" t="s">
+        <v>170</v>
+      </c>
+      <c r="G55" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="D56" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56" s="1">
-        <v>20</v>
-      </c>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="E56" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
-      </c>
-      <c r="F57" s="1">
-        <v>20</v>
-      </c>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="E57" t="s">
+        <v>98</v>
+      </c>
+      <c r="G57" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
-      </c>
-      <c r="F58" s="1">
-        <v>20</v>
-      </c>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="E58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G58" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
-      </c>
-      <c r="F59" s="1">
-        <v>20</v>
-      </c>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="D59" t="s">
+        <v>164</v>
+      </c>
+      <c r="G59" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>67</v>
-      </c>
-      <c r="F60" s="1">
-        <v>20</v>
-      </c>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="D60" t="s">
+        <v>170</v>
+      </c>
+      <c r="G60" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
-      </c>
-      <c r="F61" s="1">
-        <v>20</v>
-      </c>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="E61" t="s">
+        <v>92</v>
+      </c>
+      <c r="G61" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62" s="1">
-        <v>20</v>
-      </c>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="E62" t="s">
+        <v>105</v>
+      </c>
+      <c r="G62" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C63" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="D63" t="s">
-        <v>32</v>
-      </c>
-      <c r="F63" s="1">
-        <v>20</v>
-      </c>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="E63" t="s">
+        <v>107</v>
+      </c>
+      <c r="G63" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C64" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="D64" t="s">
-        <v>34</v>
-      </c>
-      <c r="F64" s="1">
-        <v>20</v>
-      </c>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="E64" t="s">
+        <v>109</v>
+      </c>
+      <c r="G64" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
-      </c>
-      <c r="F65" s="1">
-        <v>20</v>
-      </c>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="D65" t="s">
+        <v>165</v>
+      </c>
+      <c r="G65" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="D66" t="s">
-        <v>37</v>
-      </c>
-      <c r="F66" s="1">
-        <v>20</v>
-      </c>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="E66" t="s">
+        <v>112</v>
+      </c>
+      <c r="G66" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="D67" t="s">
-        <v>39</v>
-      </c>
-      <c r="F67" s="1">
-        <v>20</v>
-      </c>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="E67" t="s">
+        <v>114</v>
+      </c>
+      <c r="G67" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="D68" t="s">
-        <v>41</v>
-      </c>
-      <c r="F68" s="1">
-        <v>20</v>
-      </c>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="E68" t="s">
+        <v>116</v>
+      </c>
+      <c r="G68" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C69" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="D69" t="s">
-        <v>43</v>
-      </c>
-      <c r="F69" s="1">
-        <v>20</v>
-      </c>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="E69" t="s">
+        <v>118</v>
+      </c>
+      <c r="G69" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F70" s="1">
-        <v>20</v>
-      </c>
-      <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="D70" t="s">
+        <v>165</v>
+      </c>
+      <c r="G70" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="D71" t="s">
-        <v>2</v>
-      </c>
-      <c r="F71" s="1">
-        <v>20</v>
-      </c>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="E71" t="s">
+        <v>57</v>
+      </c>
+      <c r="G71" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C72" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="D72" t="s">
-        <v>47</v>
-      </c>
-      <c r="F72" s="1">
-        <v>20</v>
-      </c>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="E72" t="s">
+        <v>122</v>
+      </c>
+      <c r="G72" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="B73" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C73" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="D73" t="s">
-        <v>49</v>
-      </c>
-      <c r="F73" s="1">
-        <v>20</v>
-      </c>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="E73" t="s">
+        <v>124</v>
+      </c>
+      <c r="G73" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="D74" t="s">
-        <v>51</v>
-      </c>
-      <c r="F74" s="1">
-        <v>20</v>
-      </c>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="E74" t="s">
+        <v>126</v>
+      </c>
+      <c r="G74" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C75" t="s">
-        <v>70</v>
-      </c>
-      <c r="F75" s="1">
-        <v>20</v>
-      </c>
-      <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="D75" t="s">
+        <v>162</v>
+      </c>
+      <c r="G75" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C76" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="D76" t="s">
-        <v>54</v>
-      </c>
-      <c r="F76" s="1">
-        <v>20</v>
-      </c>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="E76" t="s">
+        <v>129</v>
+      </c>
+      <c r="G76" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C77" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="D77" t="s">
-        <v>56</v>
-      </c>
-      <c r="F77" s="1">
-        <v>20</v>
-      </c>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="E77" t="s">
+        <v>131</v>
+      </c>
+      <c r="G77" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C78" t="s">
-        <v>70</v>
-      </c>
-      <c r="F78" s="1">
-        <v>20</v>
-      </c>
-      <c r="G78" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="D78" t="s">
+        <v>165</v>
+      </c>
+      <c r="G78" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H78" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
